--- a/modeloExcel.xlsx
+++ b/modeloExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47425337800\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47425337800\Documents\senai\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6664BA3E-7CB8-4DF3-AF77-9A2A953B4DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F428D9-EDC1-43CA-8365-226B0AC7EA66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="2" xr2:uid="{04F46562-5B27-4C4D-AA4F-5DBB7BE380B7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Clientes</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>ConsertoColaborador</t>
+  </si>
+  <si>
+    <t>Serviço</t>
+  </si>
+  <si>
+    <t>IdServiço</t>
+  </si>
+  <si>
+    <t>Limpeza de peças</t>
+  </si>
+  <si>
+    <t>manutenção</t>
+  </si>
+  <si>
+    <t>reposição</t>
   </si>
 </sst>
 </file>
@@ -137,72 +152,93 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,10 +254,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82CE8590-63F6-41EB-A56C-F4D6F3DB247A}" name="Tabela2" displayName="Tabela2" ref="A2:B6" headerRowCount="0" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82CE8590-63F6-41EB-A56C-F4D6F3DB247A}" name="Tabela2" displayName="Tabela2" ref="A2:B6" headerRowCount="0" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EED55447-1844-48D6-A825-337BC61BF3CE}" name="Coluna1" totalsRowLabel="Total" headerRowDxfId="20" dataDxfId="14" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{BF432BE7-E3A5-450B-9CE9-3854C0C71C38}" name="Coluna2" totalsRowFunction="count" headerRowDxfId="21" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{EED55447-1844-48D6-A825-337BC61BF3CE}" name="Coluna1" totalsRowLabel="Total" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{BF432BE7-E3A5-450B-9CE9-3854C0C71C38}" name="Coluna2" totalsRowFunction="count" headerRowDxfId="22" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -242,9 +278,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7081C5DF-CD34-4AE1-B28D-1B4B36088E9D}" name="Tabela4" displayName="Tabela4" ref="A10:B13" headerRowCount="0" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7081C5DF-CD34-4AE1-B28D-1B4B36088E9D}" name="Tabela4" displayName="Tabela4" ref="A10:B13" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{68544831-8EB4-440F-9FDC-685EE43420BE}" name="Equipamentos" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{68544831-8EB4-440F-9FDC-685EE43420BE}" name="Equipamentos" headerRowDxfId="19" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{C17769C6-D013-4073-950A-2EE3587E7EB2}" name="." headerRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -252,21 +288,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2D8E77A0-52C6-4F2A-ACD0-8C1D07B0CA6F}" name="Tabela5" displayName="Tabela5" ref="D11:F15" headerRowCount="0" headerRowDxfId="7" dataDxfId="5" totalsRowDxfId="6">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C23CFD24-2C33-4192-ABB3-89DC1EA28A18}" name="Coluna1" totalsRowFunction="count" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1D07F525-4029-44F7-A2D1-413CB84DF091}" name="Coluna2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{341CCB94-3782-454B-9609-22ADD4E91D52}" name="Coluna3" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2D8E77A0-52C6-4F2A-ACD0-8C1D07B0CA6F}" name="Tabela5" displayName="Tabela5" ref="D11:G15" headerRowCount="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C23CFD24-2C33-4192-ABB3-89DC1EA28A18}" name="Coluna1" totalsRowFunction="count" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1D07F525-4029-44F7-A2D1-413CB84DF091}" name="Coluna2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{341CCB94-3782-454B-9609-22ADD4E91D52}" name="Coluna3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{620A6D15-4D39-4393-9FD0-E67CF6761E78}" name="Coluna4" headerRowDxfId="5" dataDxfId="6" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{96E66494-739B-4640-8B7F-2F67B9803E08}" name="Tabela6" displayName="Tabela6" ref="A16:B22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{96E66494-739B-4640-8B7F-2F67B9803E08}" name="Tabela6" displayName="Tabela6" ref="A16:B22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{681A61BD-C122-4F89-BFE5-48F0AE6A50F5}" name="Coluna1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5BFD87C7-3212-442B-A6E7-23D1906ADDD8}" name="Coluna2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{681A61BD-C122-4F89-BFE5-48F0AE6A50F5}" name="Coluna1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5BFD87C7-3212-442B-A6E7-23D1906ADDD8}" name="Coluna2" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8312D49C-E4A6-4B79-8F18-65670F7DF43A}" name="Tabela1" displayName="Tabela1" ref="G3:H6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EC83E230-BB78-4F26-8D4E-3BBD1D1840AB}" name="Coluna1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CEFFBBC8-D3D3-47E0-9302-3DDF487365AE}" name="Coluna2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,10 +644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4540C554-EBEE-4AC8-8183-DD3339298C27}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +655,7 @@
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,8 +666,13 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,8 +685,15 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -647,8 +706,15 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -661,8 +727,15 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -675,13 +748,20 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,7 +775,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -711,9 +791,11 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -729,9 +811,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -747,9 +831,11 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>3</v>
       </c>
@@ -759,9 +845,11 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -775,9 +863,11 @@
       <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,12 +926,13 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>